--- a/src/main/resources/deler.xlsx
+++ b/src/main/resources/deler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno.sharepoint.com/sites/digihot/Shared Documents/Hugin/Deler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{833D2F18-4DD2-409F-876A-8BB9384061EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{843CC8DE-B14D-4FBC-9012-AC57BBF9DA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{BF3FA88B-012A-4523-8159-2DE03183410D}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="21240" firstSheet="1" xr2:uid="{BF3FA88B-012A-4523-8159-2DE03183410D}"/>
   </bookViews>
   <sheets>
     <sheet name="Deler (detaljer)" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="309">
   <si>
     <t>Navn</t>
   </si>
@@ -68,6 +68,12 @@
     <t>Dekk helgummi</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Dekk</t>
+  </si>
+  <si>
     <t>Armlene lang høyre</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
     <t>25173-1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Annet</t>
+  </si>
+  <si>
     <t>Armlene lang venstre</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
     <t>Drivhjul</t>
   </si>
   <si>
+    <t>Hjul</t>
+  </si>
+  <si>
     <t>Hurtigkobling 12,7 mm</t>
   </si>
   <si>
@@ -194,6 +209,9 @@
     <t>Gaffel svinghjul</t>
   </si>
   <si>
+    <t>Svinghjul</t>
+  </si>
+  <si>
     <t>Svinghjul standard</t>
   </si>
   <si>
@@ -431,7 +449,7 @@
     <t>Lader</t>
   </si>
   <si>
-    <t>Hjul</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">Hjelpemiddel </t>
@@ -938,16 +956,10 @@
     <t>316165</t>
   </si>
   <si>
-    <t>Dekk</t>
-  </si>
-  <si>
     <t>Slange</t>
   </si>
   <si>
     <t>Armlenepads</t>
-  </si>
-  <si>
-    <t>Svinghjul</t>
   </si>
   <si>
     <t>Hjelpemiddel navn</t>
@@ -1544,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D371AC0-AD41-4433-84FD-85875537ACF4}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1592,303 +1604,411 @@
       <c r="C2" s="10">
         <v>80768</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B20" s="10">
         <v>220485</v>
@@ -1896,16 +2016,22 @@
       <c r="C20" s="25">
         <v>27564</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B21" s="10">
         <v>318078</v>
@@ -1913,16 +2039,22 @@
       <c r="C21" s="25">
         <v>83879</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="10">
         <v>181134</v>
@@ -1930,16 +2062,22 @@
       <c r="C22" s="25">
         <v>81346</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10">
         <v>318227</v>
@@ -1947,16 +2085,22 @@
       <c r="C23" s="25">
         <v>83872</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12"/>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B24" s="10">
         <v>219993</v>
@@ -1964,16 +2108,22 @@
       <c r="C24" s="25">
         <v>82483</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B25" s="10">
         <v>139108</v>
@@ -1981,16 +2131,22 @@
       <c r="C25" s="25">
         <v>81325</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B26" s="10">
         <v>154111</v>
@@ -1998,16 +2154,22 @@
       <c r="C26" s="25">
         <v>24678</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B27" s="10">
         <v>318335</v>
@@ -2015,16 +2177,22 @@
       <c r="C27" s="25">
         <v>28969</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B28" s="10">
         <v>222716</v>
@@ -2032,16 +2200,22 @@
       <c r="C28" s="26">
         <v>27866</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B29" s="10">
         <v>318324</v>
@@ -2049,713 +2223,965 @@
       <c r="C29" s="25">
         <v>28922</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B30" s="10">
         <v>220326</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10">
         <v>220325</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B32" s="10">
         <v>158029</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B33" s="10">
         <v>158033</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10">
         <v>240197</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B35" s="10">
         <v>279255</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B36" s="10">
         <v>240198</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B37" s="10">
         <v>236921</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10">
         <v>240199</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B39" s="10">
         <v>236922</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B40" s="10">
         <v>240200</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B41" s="10">
         <v>236923</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B42" s="10">
         <v>240201</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B43" s="10">
         <v>236924</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B44" s="10">
         <v>240202</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B45" s="10">
         <v>236925</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B46" s="10">
         <v>240203</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B47" s="10">
         <v>279256</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B48" s="10">
         <v>240204</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B49" s="10">
         <v>279257</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10">
         <v>240205</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B51" s="10">
         <v>279258</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52" s="10">
         <v>240206</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B53" s="10">
         <v>279259</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B54" s="10">
         <v>181078</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B55" s="10">
         <v>181079</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B56" s="10">
         <v>181080</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B57" s="10">
         <v>181081</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B58" s="10">
         <v>181082</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B59" s="10">
         <v>181083</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B60" s="10">
         <v>181084</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B61" s="10">
         <v>181085</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B62" s="10">
         <v>181086</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B63" s="10">
         <v>181087</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B64" s="10">
         <v>181088</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B65" s="10">
         <v>181089</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B66" s="10">
         <v>181090</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B67" s="10">
         <v>181091</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B71" s="23">
         <v>316172</v>
@@ -2763,33 +3189,45 @@
       <c r="C71" s="23">
         <v>93728</v>
       </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="12"/>
+      <c r="D71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B73" s="15">
         <v>154652</v>
@@ -2797,16 +3235,22 @@
       <c r="C73" s="15">
         <v>29500</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="12"/>
+      <c r="D73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B74" s="15">
         <v>154653</v>
@@ -2814,16 +3258,22 @@
       <c r="C74" s="15">
         <v>29501</v>
       </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="12"/>
+      <c r="D74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B75" s="15">
         <v>154654</v>
@@ -2831,16 +3281,22 @@
       <c r="C75" s="15">
         <v>29502</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="12"/>
+      <c r="D75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B76" s="15">
         <v>154655</v>
@@ -2848,16 +3304,22 @@
       <c r="C76" s="15">
         <v>29503</v>
       </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="12"/>
+      <c r="D76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B77" s="15">
         <v>154656</v>
@@ -2865,16 +3327,22 @@
       <c r="C77" s="15">
         <v>29504</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="12"/>
+      <c r="D77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B78" s="15">
         <v>154657</v>
@@ -2882,16 +3350,22 @@
       <c r="C78" s="15">
         <v>29505</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="12"/>
+      <c r="D78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B79" s="15">
         <v>154658</v>
@@ -2899,16 +3373,22 @@
       <c r="C79" s="15">
         <v>29506</v>
       </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="12"/>
+      <c r="D79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B80" s="15">
         <v>154659</v>
@@ -2916,16 +3396,22 @@
       <c r="C80" s="15">
         <v>29507</v>
       </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="12"/>
+      <c r="D80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B81" s="15">
         <v>316217</v>
@@ -2933,16 +3419,22 @@
       <c r="C81" s="15">
         <v>94859</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="12"/>
+      <c r="D81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B82" s="15">
         <v>316219</v>
@@ -2950,50 +3442,68 @@
       <c r="C82" s="15">
         <v>29860</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="12"/>
+      <c r="D82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B85" s="15">
         <v>154662</v>
@@ -3001,16 +3511,22 @@
       <c r="C85" s="15">
         <v>29510</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="12"/>
+      <c r="D85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B86" s="15">
         <v>154663</v>
@@ -3018,16 +3534,22 @@
       <c r="C86" s="15">
         <v>29511</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="12"/>
+      <c r="D86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B87" s="15">
         <v>154664</v>
@@ -3035,16 +3557,22 @@
       <c r="C87" s="15">
         <v>29512</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="12"/>
+      <c r="D87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B88" s="15">
         <v>154665</v>
@@ -3052,16 +3580,22 @@
       <c r="C88" s="15">
         <v>29513</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="12"/>
+      <c r="D88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B89" s="15">
         <v>154666</v>
@@ -3069,67 +3603,91 @@
       <c r="C89" s="15">
         <v>29514</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="12"/>
+      <c r="D89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B93" s="15">
         <v>154670</v>
@@ -3137,16 +3695,22 @@
       <c r="C93" s="15">
         <v>40886</v>
       </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="12"/>
+      <c r="D93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B94" s="15">
         <v>215101</v>
@@ -3154,16 +3718,22 @@
       <c r="C94" s="14">
         <v>43183</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="12"/>
+      <c r="D94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B95" s="15">
         <v>316347</v>
@@ -3171,16 +3741,22 @@
       <c r="C95" s="14">
         <v>93285</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="12"/>
+      <c r="D95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B96" s="15">
         <v>219466</v>
@@ -3188,16 +3764,22 @@
       <c r="C96" s="14">
         <v>86134</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="12"/>
+      <c r="D96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B97" s="15">
         <v>268002</v>
@@ -3205,16 +3787,22 @@
       <c r="C97" s="14">
         <v>90102</v>
       </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="12"/>
+      <c r="D97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B98" s="15">
         <v>277498</v>
@@ -3222,16 +3810,22 @@
       <c r="C98" s="14">
         <v>86135</v>
       </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="12"/>
+      <c r="D98" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B99" s="15">
         <v>138932</v>
@@ -3239,16 +3833,22 @@
       <c r="C99" s="14">
         <v>26852</v>
       </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="12"/>
+      <c r="D99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B100" s="15">
         <v>316333</v>
@@ -3256,16 +3856,22 @@
       <c r="C100" s="14">
         <v>93674</v>
       </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="12"/>
+      <c r="D100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B101" s="15">
         <v>138933</v>
@@ -3273,16 +3879,22 @@
       <c r="C101" s="14">
         <v>26853</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="12"/>
+      <c r="D101" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B102" s="15">
         <v>316334</v>
@@ -3290,16 +3902,22 @@
       <c r="C102" s="14">
         <v>93675</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="12"/>
+      <c r="D102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B103" s="9">
         <v>154497</v>
@@ -3307,12 +3925,19 @@
       <c r="C103" s="13">
         <v>171806</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
+      <c r="D103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B104" s="9">
         <v>154500</v>
@@ -3320,12 +3945,19 @@
       <c r="C104" s="13">
         <v>171809</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
+      <c r="D104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B105" s="9">
         <v>154505</v>
@@ -3333,12 +3965,19 @@
       <c r="C105" s="13">
         <v>171813</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
+      <c r="D105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B106" s="9">
         <v>154511</v>
@@ -3346,12 +3985,19 @@
       <c r="C106" s="13">
         <v>171818</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
+      <c r="D106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B107" s="9">
         <v>154516</v>
@@ -3359,12 +4005,19 @@
       <c r="C107" s="13">
         <v>171822</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
+      <c r="D107" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B108" s="9">
         <v>154521</v>
@@ -3372,12 +4025,19 @@
       <c r="C108" s="13">
         <v>171826</v>
       </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
+      <c r="D108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B109" s="9">
         <v>154525</v>
@@ -3385,12 +4045,19 @@
       <c r="C109" s="13">
         <v>171829</v>
       </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
+      <c r="D109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B110" s="15">
         <v>154529</v>
@@ -3398,12 +4065,19 @@
       <c r="C110" s="14">
         <v>171830</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
+      <c r="D110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B111" s="9">
         <v>181577</v>
@@ -3411,12 +4085,19 @@
       <c r="C111" s="13">
         <v>367204</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
+      <c r="D111" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B112" s="9">
         <v>181579</v>
@@ -3424,12 +4105,19 @@
       <c r="C112" s="13">
         <v>367205</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="D112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B113" s="9">
         <v>181581</v>
@@ -3437,12 +4125,19 @@
       <c r="C113" s="13">
         <v>367206</v>
       </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="D113" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B114" s="9">
         <v>181583</v>
@@ -3450,12 +4145,19 @@
       <c r="C114" s="13">
         <v>367207</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="D114" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B115" s="9">
         <v>181585</v>
@@ -3463,12 +4165,19 @@
       <c r="C115" s="13">
         <v>367208</v>
       </c>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="D115" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B116" s="15">
         <v>181587</v>
@@ -3476,12 +4185,19 @@
       <c r="C116" s="14">
         <v>367209</v>
       </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="D116" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B117" s="9">
         <v>181589</v>
@@ -3489,12 +4205,19 @@
       <c r="C117" s="13">
         <v>367210</v>
       </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="D117" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B118" s="15">
         <v>181592</v>
@@ -3502,12 +4225,19 @@
       <c r="C118" s="14">
         <v>367227</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="D118" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B119" s="9">
         <v>316267</v>
@@ -3515,12 +4245,19 @@
       <c r="C119" s="13">
         <v>367215</v>
       </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="D119" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B120" s="9">
         <v>316269</v>
@@ -3528,12 +4265,19 @@
       <c r="C120" s="13">
         <v>367216</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="D120" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B121" s="15">
         <v>181422</v>
@@ -3541,60 +4285,88 @@
       <c r="C121" s="15">
         <v>81024</v>
       </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="D121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B122" s="1">
         <v>308897</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="D122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B123" s="1">
         <v>286581</v>
       </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="D123" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="8" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B124" s="1">
         <v>307864</v>
       </c>
       <c r="C124" s="13"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="D124" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
     </row>
@@ -3654,90 +4426,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944327B-15A3-4968-91D3-16CF62ED0C05}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.95">
       <c r="A1" s="29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.95">
@@ -3746,81 +4518,81 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.95">
       <c r="A3" s="32" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B3" s="33">
         <v>278331</v>
@@ -3829,19 +4601,19 @@
         <v>140928</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" s="28">
         <v>220485</v>
@@ -3863,7 +4635,7 @@
         <v>220325</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="28">
         <v>181078</v>
@@ -3882,7 +4654,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.95">
       <c r="A4" s="35" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B4" s="36">
         <v>317618</v>
@@ -3891,19 +4663,19 @@
         <v>140928</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I4" s="28">
         <v>318078</v>
@@ -3925,7 +4697,7 @@
         <v>220325</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="28">
         <v>181078</v>
@@ -3944,7 +4716,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.95">
       <c r="A5" s="32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B5" s="33">
         <v>326539</v>
@@ -3953,19 +4725,19 @@
         <v>140928</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" s="28">
         <v>181134</v>
@@ -3987,7 +4759,7 @@
         <v>220325</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="28">
         <v>181078</v>
@@ -4006,7 +4778,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.95">
       <c r="A6" s="37" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B6" s="38">
         <v>326559</v>
@@ -4015,19 +4787,19 @@
         <v>140928</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" s="28">
         <v>181134</v>
@@ -4049,7 +4821,7 @@
         <v>220325</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="28">
         <v>181078</v>
@@ -4068,7 +4840,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.95">
       <c r="A7" s="32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B7" s="33">
         <v>278832</v>
@@ -4077,19 +4849,19 @@
         <v>140928</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I7" s="28">
         <v>220485</v>
@@ -4111,7 +4883,7 @@
         <v>220325</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="28">
         <v>181078</v>
@@ -4130,7 +4902,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.95">
       <c r="A8" s="37" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B8" s="38">
         <v>326540</v>
@@ -4139,19 +4911,19 @@
         <v>140928</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I8" s="28">
         <v>318078</v>
@@ -4173,7 +4945,7 @@
         <v>220325</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="28">
         <v>181078</v>
@@ -4192,7 +4964,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.95">
       <c r="A9" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B9" s="33">
         <v>317619</v>
@@ -4201,19 +4973,19 @@
         <v>140928</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I9" s="28">
         <v>181134</v>
@@ -4235,7 +5007,7 @@
         <v>220325</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="28">
         <v>181078</v>
@@ -4254,7 +5026,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.95">
       <c r="A10" s="37" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B10" s="38">
         <v>326560</v>
@@ -4263,19 +5035,19 @@
         <v>140928</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I10" s="28">
         <v>181134</v>
@@ -4297,7 +5069,7 @@
         <v>220325</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="28">
         <v>181078</v>
@@ -4316,7 +5088,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.95">
       <c r="A11" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B11" s="33">
         <v>278333</v>
@@ -4325,19 +5097,19 @@
         <v>140928</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" s="28">
         <v>220485</v>
@@ -4359,7 +5131,7 @@
         <v>220325</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="28">
         <v>181079</v>
@@ -4378,7 +5150,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.95">
       <c r="A12" s="37" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B12" s="38">
         <v>326541</v>
@@ -4387,19 +5159,19 @@
         <v>140928</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" s="28">
         <v>318078</v>
@@ -4421,7 +5193,7 @@
         <v>220325</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="28">
         <v>181079</v>
@@ -4440,7 +5212,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.95">
       <c r="A13" s="32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B13" s="33">
         <v>317620</v>
@@ -4449,19 +5221,19 @@
         <v>140928</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="28">
         <v>181134</v>
@@ -4483,7 +5255,7 @@
         <v>220325</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="28">
         <v>181079</v>
@@ -4502,7 +5274,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.95">
       <c r="A14" s="37" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B14" s="38">
         <v>326561</v>
@@ -4511,19 +5283,19 @@
         <v>140928</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I14" s="28">
         <v>181134</v>
@@ -4545,7 +5317,7 @@
         <v>220325</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="28">
         <v>181079</v>
@@ -4564,7 +5336,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.95">
       <c r="A15" s="32" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B15" s="33">
         <v>278334</v>
@@ -4573,19 +5345,19 @@
         <v>140928</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I15" s="28">
         <v>220485</v>
@@ -4607,7 +5379,7 @@
         <v>220325</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="28">
         <v>181079</v>
@@ -4626,7 +5398,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.95">
       <c r="A16" s="37" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B16" s="38">
         <v>326542</v>
@@ -4635,19 +5407,19 @@
         <v>140928</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I16" s="28">
         <v>318078</v>
@@ -4669,7 +5441,7 @@
         <v>220325</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="28">
         <v>181079</v>
@@ -4688,7 +5460,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.95">
       <c r="A17" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B17" s="33">
         <v>317621</v>
@@ -4697,19 +5469,19 @@
         <v>140928</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I17" s="28">
         <v>181134</v>
@@ -4731,7 +5503,7 @@
         <v>220325</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="28">
         <v>181079</v>
@@ -4750,7 +5522,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.95">
       <c r="A18" s="37" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" s="38">
         <v>326562</v>
@@ -4759,19 +5531,19 @@
         <v>140928</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I18" s="28">
         <v>181134</v>
@@ -4793,7 +5565,7 @@
         <v>220325</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="28">
         <v>181079</v>
@@ -4812,7 +5584,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.95">
       <c r="A19" s="32" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B19" s="33">
         <v>278335</v>
@@ -4821,19 +5593,19 @@
         <v>140928</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I19" s="28">
         <v>220485</v>
@@ -4855,7 +5627,7 @@
         <v>220325</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="28">
         <v>181080</v>
@@ -4874,7 +5646,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.95">
       <c r="A20" s="37" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B20" s="38">
         <v>326543</v>
@@ -4883,19 +5655,19 @@
         <v>140928</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I20" s="28">
         <v>318078</v>
@@ -4917,7 +5689,7 @@
         <v>220325</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="28">
         <v>181080</v>
@@ -4936,7 +5708,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.95">
       <c r="A21" s="32" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B21" s="33">
         <v>317622</v>
@@ -4945,19 +5717,19 @@
         <v>140928</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I21" s="28">
         <v>181134</v>
@@ -4979,7 +5751,7 @@
         <v>220325</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="28">
         <v>181080</v>
@@ -4998,7 +5770,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.95">
       <c r="A22" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B22" s="38">
         <v>326563</v>
@@ -5007,19 +5779,19 @@
         <v>140928</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I22" s="28">
         <v>181134</v>
@@ -5041,7 +5813,7 @@
         <v>220325</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="28">
         <v>181080</v>
@@ -5060,7 +5832,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.95">
       <c r="A23" s="32" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B23" s="33">
         <v>278336</v>
@@ -5069,19 +5841,19 @@
         <v>140928</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I23" s="28">
         <v>220485</v>
@@ -5103,7 +5875,7 @@
         <v>220325</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="28">
         <v>181080</v>
@@ -5122,7 +5894,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.95">
       <c r="A24" s="37" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B24" s="38">
         <v>326544</v>
@@ -5131,19 +5903,19 @@
         <v>140928</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I24" s="28">
         <v>318078</v>
@@ -5165,7 +5937,7 @@
         <v>220325</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="28">
         <v>181080</v>
@@ -5184,7 +5956,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.95">
       <c r="A25" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B25" s="33">
         <v>317623</v>
@@ -5193,19 +5965,19 @@
         <v>140928</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I25" s="28">
         <v>181134</v>
@@ -5227,7 +5999,7 @@
         <v>220325</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="28">
         <v>181080</v>
@@ -5246,7 +6018,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.95">
       <c r="A26" s="37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B26" s="38">
         <v>326564</v>
@@ -5255,19 +6027,19 @@
         <v>140928</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I26" s="28">
         <v>181134</v>
@@ -5289,7 +6061,7 @@
         <v>220325</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="28">
         <v>181080</v>
@@ -5308,25 +6080,25 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C27" s="28">
         <v>140928</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I27" s="28">
         <v>220485</v>
@@ -5348,7 +6120,7 @@
         <v>220325</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="28">
         <v>181081</v>
@@ -5367,7 +6139,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.95">
       <c r="A28" s="37" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B28" s="38">
         <v>326545</v>
@@ -5376,19 +6148,19 @@
         <v>140928</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I28" s="28">
         <v>318078</v>
@@ -5410,7 +6182,7 @@
         <v>220325</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="28">
         <v>181081</v>
@@ -5429,7 +6201,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.95">
       <c r="A29" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B29" s="33">
         <v>317624</v>
@@ -5438,19 +6210,19 @@
         <v>140928</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I29" s="28">
         <v>181134</v>
@@ -5472,7 +6244,7 @@
         <v>220325</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="28">
         <v>181081</v>
@@ -5491,7 +6263,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.95">
       <c r="A30" s="37" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B30" s="38">
         <v>326565</v>
@@ -5500,19 +6272,19 @@
         <v>140928</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I30" s="28">
         <v>181134</v>
@@ -5534,7 +6306,7 @@
         <v>220325</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="28">
         <v>181081</v>
@@ -5553,7 +6325,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.95">
       <c r="A31" s="32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B31" s="33">
         <v>278338</v>
@@ -5562,19 +6334,19 @@
         <v>140928</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I31" s="28">
         <v>220485</v>
@@ -5596,7 +6368,7 @@
         <v>220325</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="28">
         <v>181081</v>
@@ -5615,7 +6387,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.95">
       <c r="A32" s="37" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B32" s="38">
         <v>326546</v>
@@ -5624,19 +6396,19 @@
         <v>140928</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I32" s="28">
         <v>318078</v>
@@ -5658,7 +6430,7 @@
         <v>220325</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="28">
         <v>181081</v>
@@ -5677,7 +6449,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.95">
       <c r="A33" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B33" s="33">
         <v>317625</v>
@@ -5686,19 +6458,19 @@
         <v>140928</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I33" s="28">
         <v>181134</v>
@@ -5720,7 +6492,7 @@
         <v>220325</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q33" s="28">
         <v>181081</v>
@@ -5739,7 +6511,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.95">
       <c r="A34" s="37" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B34" s="38">
         <v>326566</v>
@@ -5748,19 +6520,19 @@
         <v>140928</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I34" s="28">
         <v>181134</v>
@@ -5782,7 +6554,7 @@
         <v>220325</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="28">
         <v>181081</v>
@@ -5801,7 +6573,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.95">
       <c r="A35" s="32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B35" s="33">
         <v>278339</v>
@@ -5810,19 +6582,19 @@
         <v>140928</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I35" s="28">
         <v>220485</v>
@@ -5844,7 +6616,7 @@
         <v>220325</v>
       </c>
       <c r="P35" s="28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="28">
         <v>181082</v>
@@ -5863,7 +6635,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.95">
       <c r="A36" s="37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B36" s="38">
         <v>326547</v>
@@ -5872,19 +6644,19 @@
         <v>140928</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I36" s="28">
         <v>318078</v>
@@ -5906,7 +6678,7 @@
         <v>220325</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q36" s="28">
         <v>181082</v>
@@ -5925,7 +6697,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.95">
       <c r="A37" s="32" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B37" s="33">
         <v>317626</v>
@@ -5934,19 +6706,19 @@
         <v>140928</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I37" s="28">
         <v>181134</v>
@@ -5968,7 +6740,7 @@
         <v>220325</v>
       </c>
       <c r="P37" s="28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q37" s="28">
         <v>181082</v>
@@ -5987,7 +6759,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.95">
       <c r="A38" s="37" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B38" s="38">
         <v>326567</v>
@@ -5996,19 +6768,19 @@
         <v>140928</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I38" s="28">
         <v>181134</v>
@@ -6030,7 +6802,7 @@
         <v>220325</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q38" s="28">
         <v>181082</v>
@@ -6049,7 +6821,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.95">
       <c r="A39" s="32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B39" s="33">
         <v>278340</v>
@@ -6058,19 +6830,19 @@
         <v>140928</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I39" s="28">
         <v>220485</v>
@@ -6092,7 +6864,7 @@
         <v>220325</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q39" s="28">
         <v>181082</v>
@@ -6111,7 +6883,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.95">
       <c r="A40" s="37" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B40" s="38">
         <v>326548</v>
@@ -6120,19 +6892,19 @@
         <v>140928</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I40" s="28">
         <v>318078</v>
@@ -6154,7 +6926,7 @@
         <v>220325</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q40" s="28">
         <v>181082</v>
@@ -6173,7 +6945,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.95">
       <c r="A41" s="32" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B41" s="33">
         <v>317627</v>
@@ -6182,19 +6954,19 @@
         <v>140928</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I41" s="28">
         <v>181134</v>
@@ -6216,7 +6988,7 @@
         <v>220325</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q41" s="28">
         <v>181082</v>
@@ -6235,7 +7007,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.95">
       <c r="A42" s="37" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B42" s="38">
         <v>326568</v>
@@ -6244,19 +7016,19 @@
         <v>140928</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I42" s="28">
         <v>181134</v>
@@ -6278,7 +7050,7 @@
         <v>220325</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q42" s="28">
         <v>181082</v>
@@ -6297,7 +7069,7 @@
     </row>
     <row r="43" spans="1:26" ht="15.95">
       <c r="A43" s="37" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B43" s="38">
         <v>326527</v>
@@ -6306,19 +7078,19 @@
         <v>140928</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I43" s="28">
         <v>220485</v>
@@ -6342,7 +7114,7 @@
         <v>220325</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q43" s="28">
         <v>181083</v>
@@ -6361,7 +7133,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.95">
       <c r="A44" s="37" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B44" s="38">
         <v>326528</v>
@@ -6370,19 +7142,19 @@
         <v>140928</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I44" s="28">
         <v>220485</v>
@@ -6406,7 +7178,7 @@
         <v>220325</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="28">
         <v>181083</v>
@@ -6425,7 +7197,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.95">
       <c r="A45" s="32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B45" s="33">
         <v>278341</v>
@@ -6434,19 +7206,19 @@
         <v>140928</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I45" s="28">
         <v>220485</v>
@@ -6468,7 +7240,7 @@
         <v>220325</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q45" s="28">
         <v>181083</v>
@@ -6487,7 +7259,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.95">
       <c r="A46" s="37" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B46" s="38">
         <v>326549</v>
@@ -6496,19 +7268,19 @@
         <v>140928</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I46" s="28">
         <v>318078</v>
@@ -6530,7 +7302,7 @@
         <v>220325</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q46" s="28">
         <v>181083</v>
@@ -6549,7 +7321,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.95">
       <c r="A47" s="32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B47" s="33">
         <v>317628</v>
@@ -6558,19 +7330,19 @@
         <v>140928</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I47" s="28">
         <v>181134</v>
@@ -6592,7 +7364,7 @@
         <v>220325</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q47" s="28">
         <v>181083</v>
@@ -6611,7 +7383,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.95">
       <c r="A48" s="37" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B48" s="38">
         <v>326569</v>
@@ -6620,19 +7392,19 @@
         <v>140928</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I48" s="28">
         <v>181134</v>
@@ -6654,7 +7426,7 @@
         <v>220325</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q48" s="28">
         <v>181083</v>
@@ -6673,7 +7445,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.95">
       <c r="A49" s="32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B49" s="33">
         <v>278342</v>
@@ -6682,19 +7454,19 @@
         <v>140928</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I49" s="28">
         <v>220485</v>
@@ -6716,7 +7488,7 @@
         <v>220325</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q49" s="28">
         <v>181083</v>
@@ -6735,7 +7507,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.95">
       <c r="A50" s="37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B50" s="38">
         <v>326550</v>
@@ -6744,19 +7516,19 @@
         <v>140928</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I50" s="28">
         <v>318078</v>
@@ -6778,7 +7550,7 @@
         <v>220325</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="28">
         <v>181083</v>
@@ -6797,7 +7569,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.95">
       <c r="A51" s="32" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B51" s="33">
         <v>317629</v>
@@ -6806,19 +7578,19 @@
         <v>140928</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I51" s="28">
         <v>181134</v>
@@ -6840,7 +7612,7 @@
         <v>220325</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q51" s="28">
         <v>181083</v>
@@ -6859,7 +7631,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.95">
       <c r="A52" s="37" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B52" s="38">
         <v>326570</v>
@@ -6868,19 +7640,19 @@
         <v>140928</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I52" s="28">
         <v>181134</v>
@@ -6902,7 +7674,7 @@
         <v>220325</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q52" s="28">
         <v>181083</v>
@@ -6921,7 +7693,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.95">
       <c r="A53" s="37" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B53" s="38">
         <v>326529</v>
@@ -6930,19 +7702,19 @@
         <v>140928</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I53" s="28">
         <v>220485</v>
@@ -6966,7 +7738,7 @@
         <v>220325</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q53" s="28">
         <v>181084</v>
@@ -6985,7 +7757,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.95">
       <c r="A54" s="37" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B54" s="38">
         <v>326530</v>
@@ -6994,19 +7766,19 @@
         <v>140928</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I54" s="28">
         <v>220485</v>
@@ -7030,7 +7802,7 @@
         <v>220325</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q54" s="28">
         <v>181084</v>
@@ -7049,7 +7821,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.95">
       <c r="A55" s="32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B55" s="33">
         <v>278343</v>
@@ -7058,19 +7830,19 @@
         <v>140928</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I55" s="28">
         <v>220485</v>
@@ -7092,7 +7864,7 @@
         <v>220325</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q55" s="28">
         <v>181084</v>
@@ -7111,7 +7883,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.95">
       <c r="A56" s="37" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B56" s="38">
         <v>326551</v>
@@ -7120,19 +7892,19 @@
         <v>140928</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I56" s="28">
         <v>318078</v>
@@ -7154,7 +7926,7 @@
         <v>220325</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q56" s="28">
         <v>181084</v>
@@ -7173,7 +7945,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.95">
       <c r="A57" s="32" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B57" s="33">
         <v>317630</v>
@@ -7182,19 +7954,19 @@
         <v>140928</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I57" s="28">
         <v>181134</v>
@@ -7216,7 +7988,7 @@
         <v>220325</v>
       </c>
       <c r="P57" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q57" s="28">
         <v>181084</v>
@@ -7235,7 +8007,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.95">
       <c r="A58" s="37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B58" s="38">
         <v>326571</v>
@@ -7244,19 +8016,19 @@
         <v>140928</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I58" s="28">
         <v>181134</v>
@@ -7278,7 +8050,7 @@
         <v>220325</v>
       </c>
       <c r="P58" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q58" s="28">
         <v>181084</v>
@@ -7297,7 +8069,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.95">
       <c r="A59" s="32" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B59" s="33">
         <v>278344</v>
@@ -7306,19 +8078,19 @@
         <v>140928</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I59" s="28">
         <v>220485</v>
@@ -7340,7 +8112,7 @@
         <v>220325</v>
       </c>
       <c r="P59" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q59" s="28">
         <v>181084</v>
@@ -7359,7 +8131,7 @@
     </row>
     <row r="60" spans="1:26" ht="15.95">
       <c r="A60" s="37" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B60" s="38">
         <v>326552</v>
@@ -7368,19 +8140,19 @@
         <v>140928</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I60" s="28">
         <v>318078</v>
@@ -7402,7 +8174,7 @@
         <v>220325</v>
       </c>
       <c r="P60" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q60" s="28">
         <v>181084</v>
@@ -7421,7 +8193,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.95">
       <c r="A61" s="32" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B61" s="33">
         <v>317631</v>
@@ -7430,19 +8202,19 @@
         <v>140928</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I61" s="28">
         <v>181134</v>
@@ -7464,7 +8236,7 @@
         <v>220325</v>
       </c>
       <c r="P61" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q61" s="28">
         <v>181084</v>
@@ -7483,7 +8255,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.95">
       <c r="A62" s="37" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B62" s="38">
         <v>326572</v>
@@ -7492,19 +8264,19 @@
         <v>140928</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I62" s="28">
         <v>181134</v>
@@ -7526,7 +8298,7 @@
         <v>220325</v>
       </c>
       <c r="P62" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q62" s="28">
         <v>181084</v>
@@ -7545,7 +8317,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.95">
       <c r="A63" s="37" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B63" s="38">
         <v>326531</v>
@@ -7554,19 +8326,19 @@
         <v>140928</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I63" s="28">
         <v>220485</v>
@@ -7590,7 +8362,7 @@
         <v>220325</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q63" s="28">
         <v>181085</v>
@@ -7609,7 +8381,7 @@
     </row>
     <row r="64" spans="1:26" ht="15.95">
       <c r="A64" s="37" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B64" s="38">
         <v>326532</v>
@@ -7618,19 +8390,19 @@
         <v>140928</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I64" s="28">
         <v>220485</v>
@@ -7654,7 +8426,7 @@
         <v>220325</v>
       </c>
       <c r="P64" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q64" s="28">
         <v>181085</v>
@@ -7673,7 +8445,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.95">
       <c r="A65" s="32" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B65" s="33">
         <v>278345</v>
@@ -7682,19 +8454,19 @@
         <v>140928</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I65" s="28">
         <v>220485</v>
@@ -7716,7 +8488,7 @@
         <v>220325</v>
       </c>
       <c r="P65" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q65" s="28">
         <v>181085</v>
@@ -7735,7 +8507,7 @@
     </row>
     <row r="66" spans="1:26" ht="15.95">
       <c r="A66" s="37" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B66" s="38">
         <v>326553</v>
@@ -7744,19 +8516,19 @@
         <v>140928</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I66" s="28">
         <v>318078</v>
@@ -7778,7 +8550,7 @@
         <v>220325</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q66" s="28">
         <v>181085</v>
@@ -7797,7 +8569,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.95">
       <c r="A67" s="32" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B67" s="33">
         <v>317632</v>
@@ -7806,19 +8578,19 @@
         <v>140928</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I67" s="28">
         <v>181134</v>
@@ -7840,7 +8612,7 @@
         <v>220325</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q67" s="28">
         <v>181085</v>
@@ -7859,7 +8631,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.95">
       <c r="A68" s="37" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B68" s="38">
         <v>326573</v>
@@ -7868,19 +8640,19 @@
         <v>140928</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I68" s="28">
         <v>181134</v>
@@ -7902,7 +8674,7 @@
         <v>220325</v>
       </c>
       <c r="P68" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q68" s="28">
         <v>181085</v>
@@ -7921,7 +8693,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.95">
       <c r="A69" s="32" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B69" s="33">
         <v>278346</v>
@@ -7930,19 +8702,19 @@
         <v>140928</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I69" s="28">
         <v>220485</v>
@@ -7964,7 +8736,7 @@
         <v>220325</v>
       </c>
       <c r="P69" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q69" s="28">
         <v>181085</v>
@@ -7983,7 +8755,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.95">
       <c r="A70" s="37" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B70" s="38">
         <v>326554</v>
@@ -7992,19 +8764,19 @@
         <v>140928</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I70" s="28">
         <v>318078</v>
@@ -8026,7 +8798,7 @@
         <v>220325</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q70" s="28">
         <v>181085</v>
@@ -8045,7 +8817,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.95">
       <c r="A71" s="32" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B71" s="33">
         <v>317633</v>
@@ -8054,19 +8826,19 @@
         <v>140928</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I71" s="28">
         <v>181134</v>
@@ -8088,7 +8860,7 @@
         <v>220325</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q71" s="28">
         <v>181085</v>
@@ -8107,7 +8879,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.95">
       <c r="A72" s="37" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B72" s="38">
         <v>326574</v>
@@ -8116,19 +8888,19 @@
         <v>140928</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I72" s="28">
         <v>181134</v>
@@ -8150,7 +8922,7 @@
         <v>220325</v>
       </c>
       <c r="P72" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q72" s="28">
         <v>181085</v>
@@ -8169,7 +8941,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.95">
       <c r="A73" s="37" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B73" s="38">
         <v>326533</v>
@@ -8178,19 +8950,19 @@
         <v>140928</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I73" s="28">
         <v>220485</v>
@@ -8214,7 +8986,7 @@
         <v>220325</v>
       </c>
       <c r="P73" s="28" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q73" s="28">
         <v>181086</v>
@@ -8233,7 +9005,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.95">
       <c r="A74" s="37" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B74" s="38">
         <v>326534</v>
@@ -8242,19 +9014,19 @@
         <v>140928</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I74" s="28">
         <v>220485</v>
@@ -8278,7 +9050,7 @@
         <v>220325</v>
       </c>
       <c r="P74" s="28" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q74" s="28">
         <v>181086</v>
@@ -8297,7 +9069,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.95">
       <c r="A75" s="37" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B75" s="38">
         <v>326535</v>
@@ -8306,19 +9078,19 @@
         <v>140928</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I75" s="28">
         <v>220485</v>
@@ -8342,7 +9114,7 @@
         <v>220325</v>
       </c>
       <c r="P75" s="28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q75" s="28">
         <v>181087</v>
@@ -8361,7 +9133,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.95">
       <c r="A76" s="37" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B76" s="38">
         <v>326536</v>
@@ -8370,19 +9142,19 @@
         <v>140928</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I76" s="28">
         <v>220485</v>
@@ -8406,7 +9178,7 @@
         <v>220325</v>
       </c>
       <c r="P76" s="28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q76" s="28">
         <v>181087</v>
@@ -8425,7 +9197,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.95">
       <c r="A77" s="37" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B77" s="38">
         <v>326537</v>
@@ -8434,19 +9206,19 @@
         <v>140928</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I77" s="28">
         <v>220485</v>
@@ -8470,7 +9242,7 @@
         <v>220325</v>
       </c>
       <c r="P77" s="28" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q77" s="28">
         <v>181088</v>
@@ -8489,7 +9261,7 @@
     </row>
     <row r="78" spans="1:26" ht="15.95">
       <c r="A78" s="37" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B78" s="38">
         <v>326538</v>
@@ -8498,19 +9270,19 @@
         <v>140928</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I78" s="28">
         <v>220485</v>
@@ -8534,7 +9306,7 @@
         <v>220325</v>
       </c>
       <c r="P78" s="28" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q78" s="28">
         <v>181088</v>
@@ -8575,52 +9347,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="O1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="P1" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.95">
@@ -8629,1092 +9401,1092 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="24" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="M4" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="N4" s="21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="24" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="24" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="24" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="24" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="24" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="24" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="24" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="24" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="24" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="24" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="24" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>273</v>
-      </c>
       <c r="E16" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>275</v>
-      </c>
       <c r="K17" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="M18" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>277</v>
-      </c>
       <c r="N18" s="21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="24" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -9734,165 +10506,165 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="32.1">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.95">
       <c r="A3" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B3" s="1">
         <v>304585</v>
@@ -10090,26 +10862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4e246d5-064a-42ac-8fae-0696c9fa62dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ffa00a1b-1412-4262-83a1-58f2742580e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0664017650A5947BA1B6BB62DDE1756" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f9c0f626e79dc52133e521b8706fa1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4e246d5-064a-42ac-8fae-0696c9fa62dd" xmlns:ns3="ffa00a1b-1412-4262-83a1-58f2742580e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f282b496f7fa320b6d535d24d0a2767" ns2:_="" ns3:_="">
     <xsd:import namespace="e4e246d5-064a-42ac-8fae-0696c9fa62dd"/>
@@ -10364,8 +11116,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4e246d5-064a-42ac-8fae-0696c9fa62dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ffa00a1b-1412-4262-83a1-58f2742580e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8891E3-5751-4A35-B3F5-37B11899C6EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67259AB4-4A3F-4792-B9D1-873365319B83}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10373,7 +11145,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67259AB4-4A3F-4792-B9D1-873365319B83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8891E3-5751-4A35-B3F5-37B11899C6EA}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/deler.xlsx
+++ b/src/main/resources/deler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno.sharepoint.com/sites/digihot/Shared Documents/Hugin/Deler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{843CC8DE-B14D-4FBC-9012-AC57BBF9DA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB531656-5C1C-4F95-9E92-BE1E6F4ABC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="21240" firstSheet="1" xr2:uid="{BF3FA88B-012A-4523-8159-2DE03183410D}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="21240" activeTab="1" xr2:uid="{BF3FA88B-012A-4523-8159-2DE03183410D}"/>
   </bookViews>
   <sheets>
     <sheet name="Deler (detaljer)" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="310">
   <si>
     <t>Navn</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>Cross 6 sb43 K</t>
+  </si>
+  <si>
+    <t>278337</t>
   </si>
   <si>
     <t>240199</t>
@@ -1556,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D371AC0-AD41-4433-84FD-85875537ACF4}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -4426,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944327B-15A3-4968-91D3-16CF62ED0C05}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -6082,6 +6085,9 @@
       <c r="A27" s="32" t="s">
         <v>164</v>
       </c>
+      <c r="B27" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C27" s="28">
         <v>140928</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>220325</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="28">
         <v>181081</v>
@@ -6182,7 +6188,7 @@
         <v>220325</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="28">
         <v>181081</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.95">
       <c r="A29" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" s="33">
         <v>317624</v>
@@ -6244,7 +6250,7 @@
         <v>220325</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="28">
         <v>181081</v>
@@ -6263,7 +6269,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.95">
       <c r="A30" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" s="38">
         <v>326565</v>
@@ -6306,7 +6312,7 @@
         <v>220325</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="28">
         <v>181081</v>
@@ -6325,7 +6331,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.95">
       <c r="A31" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31" s="33">
         <v>278338</v>
@@ -6368,7 +6374,7 @@
         <v>220325</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="28">
         <v>181081</v>
@@ -6387,7 +6393,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.95">
       <c r="A32" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B32" s="38">
         <v>326546</v>
@@ -6430,7 +6436,7 @@
         <v>220325</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="28">
         <v>181081</v>
@@ -6449,7 +6455,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.95">
       <c r="A33" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" s="33">
         <v>317625</v>
@@ -6492,7 +6498,7 @@
         <v>220325</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33" s="28">
         <v>181081</v>
@@ -6511,7 +6517,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.95">
       <c r="A34" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" s="38">
         <v>326566</v>
@@ -6554,7 +6560,7 @@
         <v>220325</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34" s="28">
         <v>181081</v>
@@ -6573,7 +6579,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.95">
       <c r="A35" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" s="33">
         <v>278339</v>
@@ -6616,7 +6622,7 @@
         <v>220325</v>
       </c>
       <c r="P35" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="28">
         <v>181082</v>
@@ -6635,7 +6641,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.95">
       <c r="A36" s="37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" s="38">
         <v>326547</v>
@@ -6678,7 +6684,7 @@
         <v>220325</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36" s="28">
         <v>181082</v>
@@ -6697,7 +6703,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.95">
       <c r="A37" s="32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" s="33">
         <v>317626</v>
@@ -6740,7 +6746,7 @@
         <v>220325</v>
       </c>
       <c r="P37" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="28">
         <v>181082</v>
@@ -6759,7 +6765,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.95">
       <c r="A38" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B38" s="38">
         <v>326567</v>
@@ -6802,7 +6808,7 @@
         <v>220325</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38" s="28">
         <v>181082</v>
@@ -6821,7 +6827,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.95">
       <c r="A39" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" s="33">
         <v>278340</v>
@@ -6864,7 +6870,7 @@
         <v>220325</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39" s="28">
         <v>181082</v>
@@ -6883,7 +6889,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.95">
       <c r="A40" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" s="38">
         <v>326548</v>
@@ -6926,7 +6932,7 @@
         <v>220325</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40" s="28">
         <v>181082</v>
@@ -6945,7 +6951,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.95">
       <c r="A41" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B41" s="33">
         <v>317627</v>
@@ -6988,7 +6994,7 @@
         <v>220325</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="28">
         <v>181082</v>
@@ -7007,7 +7013,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.95">
       <c r="A42" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B42" s="38">
         <v>326568</v>
@@ -7050,7 +7056,7 @@
         <v>220325</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42" s="28">
         <v>181082</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="43" spans="1:26" ht="15.95">
       <c r="A43" s="37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B43" s="38">
         <v>326527</v>
@@ -7114,7 +7120,7 @@
         <v>220325</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43" s="28">
         <v>181083</v>
@@ -7133,7 +7139,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.95">
       <c r="A44" s="37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B44" s="38">
         <v>326528</v>
@@ -7178,7 +7184,7 @@
         <v>220325</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44" s="28">
         <v>181083</v>
@@ -7197,7 +7203,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.95">
       <c r="A45" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" s="33">
         <v>278341</v>
@@ -7240,7 +7246,7 @@
         <v>220325</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45" s="28">
         <v>181083</v>
@@ -7259,7 +7265,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.95">
       <c r="A46" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B46" s="38">
         <v>326549</v>
@@ -7302,7 +7308,7 @@
         <v>220325</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46" s="28">
         <v>181083</v>
@@ -7321,7 +7327,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.95">
       <c r="A47" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B47" s="33">
         <v>317628</v>
@@ -7364,7 +7370,7 @@
         <v>220325</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47" s="28">
         <v>181083</v>
@@ -7383,7 +7389,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.95">
       <c r="A48" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48" s="38">
         <v>326569</v>
@@ -7426,7 +7432,7 @@
         <v>220325</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48" s="28">
         <v>181083</v>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.95">
       <c r="A49" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B49" s="33">
         <v>278342</v>
@@ -7488,7 +7494,7 @@
         <v>220325</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49" s="28">
         <v>181083</v>
@@ -7507,7 +7513,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.95">
       <c r="A50" s="37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B50" s="38">
         <v>326550</v>
@@ -7550,7 +7556,7 @@
         <v>220325</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50" s="28">
         <v>181083</v>
@@ -7569,7 +7575,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.95">
       <c r="A51" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B51" s="33">
         <v>317629</v>
@@ -7612,7 +7618,7 @@
         <v>220325</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51" s="28">
         <v>181083</v>
@@ -7631,7 +7637,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.95">
       <c r="A52" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" s="38">
         <v>326570</v>
@@ -7674,7 +7680,7 @@
         <v>220325</v>
       </c>
       <c r="P52" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52" s="28">
         <v>181083</v>
@@ -7693,7 +7699,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.95">
       <c r="A53" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B53" s="38">
         <v>326529</v>
@@ -7738,7 +7744,7 @@
         <v>220325</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q53" s="28">
         <v>181084</v>
@@ -7757,7 +7763,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.95">
       <c r="A54" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B54" s="38">
         <v>326530</v>
@@ -7802,7 +7808,7 @@
         <v>220325</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q54" s="28">
         <v>181084</v>
@@ -7821,7 +7827,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.95">
       <c r="A55" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="33">
         <v>278343</v>
@@ -7864,7 +7870,7 @@
         <v>220325</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q55" s="28">
         <v>181084</v>
@@ -7883,7 +7889,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.95">
       <c r="A56" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" s="38">
         <v>326551</v>
@@ -7926,7 +7932,7 @@
         <v>220325</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56" s="28">
         <v>181084</v>
@@ -7945,7 +7951,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.95">
       <c r="A57" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B57" s="33">
         <v>317630</v>
@@ -7988,7 +7994,7 @@
         <v>220325</v>
       </c>
       <c r="P57" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57" s="28">
         <v>181084</v>
@@ -8007,7 +8013,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.95">
       <c r="A58" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" s="38">
         <v>326571</v>
@@ -8050,7 +8056,7 @@
         <v>220325</v>
       </c>
       <c r="P58" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58" s="28">
         <v>181084</v>
@@ -8069,7 +8075,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.95">
       <c r="A59" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="33">
         <v>278344</v>
@@ -8112,7 +8118,7 @@
         <v>220325</v>
       </c>
       <c r="P59" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59" s="28">
         <v>181084</v>
@@ -8131,7 +8137,7 @@
     </row>
     <row r="60" spans="1:26" ht="15.95">
       <c r="A60" s="37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B60" s="38">
         <v>326552</v>
@@ -8174,7 +8180,7 @@
         <v>220325</v>
       </c>
       <c r="P60" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q60" s="28">
         <v>181084</v>
@@ -8193,7 +8199,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.95">
       <c r="A61" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B61" s="33">
         <v>317631</v>
@@ -8236,7 +8242,7 @@
         <v>220325</v>
       </c>
       <c r="P61" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61" s="28">
         <v>181084</v>
@@ -8255,7 +8261,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.95">
       <c r="A62" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B62" s="38">
         <v>326572</v>
@@ -8298,7 +8304,7 @@
         <v>220325</v>
       </c>
       <c r="P62" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62" s="28">
         <v>181084</v>
@@ -8317,7 +8323,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.95">
       <c r="A63" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B63" s="38">
         <v>326531</v>
@@ -8362,7 +8368,7 @@
         <v>220325</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q63" s="28">
         <v>181085</v>
@@ -8381,7 +8387,7 @@
     </row>
     <row r="64" spans="1:26" ht="15.95">
       <c r="A64" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" s="38">
         <v>326532</v>
@@ -8426,7 +8432,7 @@
         <v>220325</v>
       </c>
       <c r="P64" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64" s="28">
         <v>181085</v>
@@ -8445,7 +8451,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.95">
       <c r="A65" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B65" s="33">
         <v>278345</v>
@@ -8488,7 +8494,7 @@
         <v>220325</v>
       </c>
       <c r="P65" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65" s="28">
         <v>181085</v>
@@ -8507,7 +8513,7 @@
     </row>
     <row r="66" spans="1:26" ht="15.95">
       <c r="A66" s="37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B66" s="38">
         <v>326553</v>
@@ -8550,7 +8556,7 @@
         <v>220325</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66" s="28">
         <v>181085</v>
@@ -8569,7 +8575,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.95">
       <c r="A67" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B67" s="33">
         <v>317632</v>
@@ -8612,7 +8618,7 @@
         <v>220325</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67" s="28">
         <v>181085</v>
@@ -8631,7 +8637,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.95">
       <c r="A68" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B68" s="38">
         <v>326573</v>
@@ -8674,7 +8680,7 @@
         <v>220325</v>
       </c>
       <c r="P68" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68" s="28">
         <v>181085</v>
@@ -8693,7 +8699,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.95">
       <c r="A69" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B69" s="33">
         <v>278346</v>
@@ -8736,7 +8742,7 @@
         <v>220325</v>
       </c>
       <c r="P69" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69" s="28">
         <v>181085</v>
@@ -8755,7 +8761,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.95">
       <c r="A70" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B70" s="38">
         <v>326554</v>
@@ -8798,7 +8804,7 @@
         <v>220325</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q70" s="28">
         <v>181085</v>
@@ -8817,7 +8823,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.95">
       <c r="A71" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B71" s="33">
         <v>317633</v>
@@ -8860,7 +8866,7 @@
         <v>220325</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71" s="28">
         <v>181085</v>
@@ -8879,7 +8885,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.95">
       <c r="A72" s="37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B72" s="38">
         <v>326574</v>
@@ -8922,7 +8928,7 @@
         <v>220325</v>
       </c>
       <c r="P72" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72" s="28">
         <v>181085</v>
@@ -8941,7 +8947,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.95">
       <c r="A73" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B73" s="38">
         <v>326533</v>
@@ -8986,7 +8992,7 @@
         <v>220325</v>
       </c>
       <c r="P73" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73" s="28">
         <v>181086</v>
@@ -9005,7 +9011,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.95">
       <c r="A74" s="37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B74" s="38">
         <v>326534</v>
@@ -9050,7 +9056,7 @@
         <v>220325</v>
       </c>
       <c r="P74" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74" s="28">
         <v>181086</v>
@@ -9069,7 +9075,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.95">
       <c r="A75" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B75" s="38">
         <v>326535</v>
@@ -9114,7 +9120,7 @@
         <v>220325</v>
       </c>
       <c r="P75" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75" s="28">
         <v>181087</v>
@@ -9133,7 +9139,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.95">
       <c r="A76" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B76" s="38">
         <v>326536</v>
@@ -9178,7 +9184,7 @@
         <v>220325</v>
       </c>
       <c r="P76" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q76" s="28">
         <v>181087</v>
@@ -9197,7 +9203,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.95">
       <c r="A77" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B77" s="38">
         <v>326537</v>
@@ -9242,7 +9248,7 @@
         <v>220325</v>
       </c>
       <c r="P77" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q77" s="28">
         <v>181088</v>
@@ -9261,7 +9267,7 @@
     </row>
     <row r="78" spans="1:26" ht="15.95">
       <c r="A78" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B78" s="38">
         <v>326538</v>
@@ -9306,7 +9312,7 @@
         <v>220325</v>
       </c>
       <c r="P78" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78" s="28">
         <v>181088</v>
@@ -9359,7 +9365,7 @@
         <v>106</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>112</v>
@@ -9371,13 +9377,13 @@
         <v>124</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>142</v>
@@ -9445,10 +9451,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>102</v>
@@ -9460,45 +9466,45 @@
         <v>110</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>102</v>
@@ -9510,45 +9516,45 @@
         <v>110</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>116</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>102</v>
@@ -9560,45 +9566,45 @@
         <v>110</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>102</v>
@@ -9610,45 +9616,45 @@
         <v>110</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>102</v>
@@ -9660,45 +9666,45 @@
         <v>110</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>102</v>
@@ -9710,45 +9716,45 @@
         <v>110</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>102</v>
@@ -9760,45 +9766,45 @@
         <v>110</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>102</v>
@@ -9810,45 +9816,45 @@
         <v>110</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>102</v>
@@ -9860,45 +9866,45 @@
         <v>110</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>102</v>
@@ -9910,45 +9916,45 @@
         <v>110</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>102</v>
@@ -9960,45 +9966,45 @@
         <v>110</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>102</v>
@@ -10010,483 +10016,483 @@
         <v>110</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>116</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>120</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>122</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -10513,10 +10519,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>138</v>
@@ -10584,10 +10590,10 @@
     </row>
     <row r="2" spans="1:26" ht="32.1">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>145</v>
@@ -10664,7 +10670,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.95">
       <c r="A3" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B3" s="1">
         <v>304585</v>
@@ -10862,6 +10868,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4e246d5-064a-42ac-8fae-0696c9fa62dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ffa00a1b-1412-4262-83a1-58f2742580e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0664017650A5947BA1B6BB62DDE1756" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f9c0f626e79dc52133e521b8706fa1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4e246d5-064a-42ac-8fae-0696c9fa62dd" xmlns:ns3="ffa00a1b-1412-4262-83a1-58f2742580e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f282b496f7fa320b6d535d24d0a2767" ns2:_="" ns3:_="">
     <xsd:import namespace="e4e246d5-064a-42ac-8fae-0696c9fa62dd"/>
@@ -11116,28 +11142,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4e246d5-064a-42ac-8fae-0696c9fa62dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ffa00a1b-1412-4262-83a1-58f2742580e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67259AB4-4A3F-4792-B9D1-873365319B83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8891E3-5751-4A35-B3F5-37B11899C6EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11145,7 +11151,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8891E3-5751-4A35-B3F5-37B11899C6EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67259AB4-4A3F-4792-B9D1-873365319B83}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
